--- a/PanoramicData.SheetMagic.Test/Sheets/Stark Industries.xlsx
+++ b/PanoramicData.SheetMagic.Test/Sheets/Stark Industries.xlsx
@@ -3,35 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C59508-E7A9-4015-BA81-958FBFFA9AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA08187-F8A8-49F7-89BD-991B78C07A5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39255" yWindow="-21720" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12345" yWindow="-21720" windowWidth="51840" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
     <sheet name="Sites" sheetId="2" r:id="rId2"/>
     <sheet name="Devices" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+  <si>
+    <t xml:space="preserve"> Site Name</t>
+  </si>
   <si>
     <t>DNA Center Bulk Provisioner</t>
   </si>
   <si>
-    <t>To use this spreadsheet:
-1. Select the correct tab, below
-2. Complete the table
-3. Save the document as a .xlsx file
-4. Drag the .xlsx file onto the app's "Upload area"</t>
-  </si>
-  <si>
-    <t>DNA-C Name</t>
-  </si>
-  <si>
     <t>Area Name Hierarchy</t>
   </si>
   <si>
@@ -50,16 +43,85 @@
     <t>Floor Name</t>
   </si>
   <si>
+    <t>Floor Width (Feet)</t>
+  </si>
+  <si>
+    <t>Floor Length (Feet)</t>
+  </si>
+  <si>
+    <t>Floor Height (Feet)</t>
+  </si>
+  <si>
+    <t>Network Module</t>
+  </si>
+  <si>
     <t>Floor RF Model</t>
   </si>
   <si>
-    <t>Floor Width (Feet)</t>
-  </si>
-  <si>
-    <t>Floor Length (Feet)</t>
-  </si>
-  <si>
-    <t>Floor Height (Feet)</t>
+    <t>Legacy Device Serial Number</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Stack Position</t>
+  </si>
+  <si>
+    <t>Hostname</t>
+  </si>
+  <si>
+    <t>Management IP Address</t>
+  </si>
+  <si>
+    <t>Management VLAN</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Rf Profile</t>
+  </si>
+  <si>
+    <t>Onboarding Configuration Template Pre</t>
+  </si>
+  <si>
+    <t>Onboarding Configuration Template Post</t>
+  </si>
+  <si>
+    <t>Stack Top Serial Number</t>
+  </si>
+  <si>
+    <t>Network Tags</t>
+  </si>
+  <si>
+    <t>Switch Profile</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>4. Drag the .xlsx file onto the app's "Upload area"</t>
+  </si>
+  <si>
+    <t>3. Save the document as a .xlsx file</t>
+  </si>
+  <si>
+    <t>1. Select the correct tab, below</t>
+  </si>
+  <si>
+    <t>To use this spreadsheet:</t>
+  </si>
+  <si>
+    <t>Meraki Only</t>
+  </si>
+  <si>
+    <t>Estate Name</t>
+  </si>
+  <si>
+    <t>2. Complete all columns, with the following exceptions:</t>
+  </si>
+  <si>
+    <t>Cisco Catalyst Only</t>
   </si>
   <si>
     <t>CAE Lab DNA Center</t>
@@ -80,49 +142,13 @@
     <t>Drywall Office Only</t>
   </si>
   <si>
-    <t>Dnac Name</t>
-  </si>
-  <si>
-    <t>Site Name</t>
-  </si>
-  <si>
-    <t>Legacy Device Serial Number</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>Stack Top Serial Number</t>
-  </si>
-  <si>
-    <t>Stack Position</t>
-  </si>
-  <si>
-    <t>Hostname</t>
-  </si>
-  <si>
-    <t>Management VLAN</t>
-  </si>
-  <si>
-    <t>Management IP Address</t>
-  </si>
-  <si>
-    <t>Onboarding Configuration Template Pre</t>
-  </si>
-  <si>
-    <t>Onboarding Configuration Template Post</t>
-  </si>
-  <si>
-    <t>Rf Profile</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Network Module</t>
-  </si>
-  <si>
-    <t>Network Tags</t>
+    <t>CAE Lab Meraki</t>
+  </si>
+  <si>
+    <t>Scotland Plant</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>EMEA DNAC Cluster</t>
@@ -134,29 +160,17 @@
     <t>FCW2408P0LP</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>Plant_1_AP_2</t>
   </si>
   <si>
     <t>HIGH</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Scotland Plant</t>
-  </si>
-  <si>
-    <t>CAE Lab Meraki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,19 +312,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,8 +499,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -612,21 +639,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -672,21 +684,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -733,7 +752,72 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -816,9 +900,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L3" totalsRowShown="0">
   <autoFilter ref="A1:L3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DNA-C Name"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Estate Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Area Name Hierarchy"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Building Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Building Name" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Building Address"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Building Latitude"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Building Longitude"/>
@@ -826,20 +910,20 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Floor RF Model"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Floor Width (Feet)"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Floor Length (Feet)"/>
-    <tableColumn id="12" xr3:uid="{5AEC48B8-BE3F-4652-8816-9E30CFD7CAC4}" name="Floor Height (Feet)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Network Tags"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Floor Height (Feet)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Network Tags" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:N2" totalsRowShown="0">
-  <autoFilter ref="A1:N2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Dnac Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Site Name"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Legacy Device Serial Number"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:P2" totalsRowShown="0">
+  <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Estate Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name=" Site Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Legacy Device Serial Number" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Serial Number"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Stack Top Serial Number"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Stack Position"/>
@@ -848,11 +932,13 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Management IP Address"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Onboarding Configuration Template Pre"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Onboarding Configuration Template Post"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Rf Profile"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Image"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Network Module"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Switch Profile" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Rf Profile" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Image" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Network Module" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Notes" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1177,77 +1263,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="133.85546875" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" hidden="1"/>
+    <col min="2" max="2" width="50.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="0.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="1" customWidth="1"/>
+    <col min="9" max="12" width="2.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
+    <row r="2" spans="1:14" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4"/>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1255,120 +1451,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1">
-        <v>600</v>
-      </c>
-      <c r="J2" s="1">
-        <v>600</v>
-      </c>
-      <c r="K2" s="1">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3">
         <v>600</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>600</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>3</v>
       </c>
+      <c r="L3" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1379,95 +1565,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="27.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="11" max="13" width="35.85546875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="54.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J2"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
